--- a/futbol.xlsx
+++ b/futbol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yolop\Desktop\2023-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F673935-1216-4D73-9F42-B9FF6CF15ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8942D18-D9FD-4D4D-8A86-4AB975006F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{A2DA903E-46CF-48F9-9625-3F64DBB34298}"/>
+    <workbookView xWindow="3705" yWindow="1650" windowWidth="15375" windowHeight="7875" xr2:uid="{A2DA903E-46CF-48F9-9625-3F64DBB34298}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -96,15 +96,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,12 +124,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,173 +462,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1106F00-B4C3-4A53-962E-B2BC6C9DC9FE}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2215</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="1">
+        <v>0.18660499999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.28467500000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.23574500000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.29297499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="1">
+        <v>0.18578</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.28169300000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.23391300000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.298817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="1">
+        <v>0.18578800000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.28282200000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.234482</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.29690800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" s="1">
+        <v>0.185697</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.282416</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.234291</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.297595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8" s="1">
+        <v>0.18572900000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.28256100000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.23435900000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.29735099999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B9" s="1">
+        <v>0.18571699999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.28250900000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.23433399999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.29743900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.35</v>
-      </c>
-      <c r="C2">
-        <v>0.19850000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.18660499999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.18578</v>
-      </c>
-      <c r="F2">
-        <v>0.18578800000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.185697</v>
-      </c>
-      <c r="H2">
-        <v>0.18572900000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.18571699999999999</v>
-      </c>
-      <c r="J2">
+      <c r="B10" s="1">
         <v>0.185722</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.25</v>
-      </c>
-      <c r="C3">
-        <v>0.27750000000000002</v>
-      </c>
-      <c r="D3">
-        <v>0.28467500000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.28169300000000003</v>
-      </c>
-      <c r="F3">
-        <v>0.28282200000000002</v>
-      </c>
-      <c r="G3">
-        <v>0.282416</v>
-      </c>
-      <c r="H3">
-        <v>0.28256100000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.28250900000000001</v>
-      </c>
-      <c r="J3">
+      <c r="C10" s="1">
         <v>0.282528</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.3</v>
-      </c>
-      <c r="C4">
-        <v>0.2215</v>
-      </c>
-      <c r="D4">
-        <v>0.23574500000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.23391300000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.234482</v>
-      </c>
-      <c r="G4">
-        <v>0.234291</v>
-      </c>
-      <c r="H4">
-        <v>0.23435900000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.23433399999999999</v>
-      </c>
-      <c r="J4">
+      <c r="D10" s="1">
         <v>0.234343</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.29297499999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.298817</v>
-      </c>
-      <c r="F5">
-        <v>0.29690800000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.297595</v>
-      </c>
-      <c r="H5">
-        <v>0.29735099999999998</v>
-      </c>
-      <c r="I5">
-        <v>0.29743900000000001</v>
-      </c>
-      <c r="J5">
+      <c r="E10" s="1">
         <v>0.29740699999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>